--- a/src/test/java/Com/Guru99/TestData/TestData_AutomationPractice.xlsx
+++ b/src/test/java/Com/Guru99/TestData/TestData_AutomationPractice.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.gyanchandani\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85962A9D-3548-4AAD-95D4-2B1E9E5B3C56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{82FC1913-8D0E-48F5-B2BC-726DEA49F380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5447698D-3521-4A84-B46F-BC6C8106D66D}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" xr2:uid="{5447698D-3521-4A84-B46F-BC6C8106D66D}"/>
   </bookViews>
   <sheets>
     <sheet name="AddNewCustomer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -542,7 +538,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
